--- a/Available_Properties.xlsx
+++ b/Available_Properties.xlsx
@@ -1,107 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmich\property-vacancies\Greg_Code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2062398-4145-46A6-9EBD-A73AD9F6FE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>18-2618 B</t>
-  </si>
-  <si>
-    <t>49-1912 A</t>
-  </si>
-  <si>
-    <t>Set aside:  60%, 60%</t>
-  </si>
-  <si>
-    <t>50-1916 A</t>
-  </si>
-  <si>
-    <t>55-2611 A</t>
-  </si>
-  <si>
-    <t>55-2611 B</t>
-  </si>
-  <si>
-    <t>57-2615 B</t>
-  </si>
-  <si>
-    <t>9-519-A</t>
-  </si>
-  <si>
-    <t>15-1911</t>
-  </si>
-  <si>
-    <t>22-2615</t>
-  </si>
-  <si>
-    <t>27-1906B</t>
-  </si>
-  <si>
     <t>49-1912 B</t>
   </si>
   <si>
+    <t>66-627B</t>
+  </si>
+  <si>
+    <t>6-1906-B</t>
+  </si>
+  <si>
+    <t>11-510-B</t>
+  </si>
+  <si>
+    <t>21-2605C</t>
+  </si>
+  <si>
+    <t>38-620A</t>
+  </si>
+  <si>
+    <t>43-1903 A</t>
+  </si>
+  <si>
+    <t>53-1926 A</t>
+  </si>
+  <si>
+    <t>59-2711 B</t>
+  </si>
+  <si>
+    <t>70-608B</t>
+  </si>
+  <si>
+    <t>4-51</t>
+  </si>
+  <si>
     <t>52-1929</t>
   </si>
   <si>
-    <t>53-1926 B</t>
-  </si>
-  <si>
-    <t>59-2711 B</t>
-  </si>
-  <si>
-    <t>65-621-7</t>
-  </si>
-  <si>
     <t>65-621-9</t>
   </si>
   <si>
-    <t>24-1809</t>
-  </si>
-  <si>
-    <t>66-627B</t>
-  </si>
-  <si>
-    <t>68-705B</t>
-  </si>
-  <si>
-    <t>71-706</t>
-  </si>
-  <si>
-    <t>16-1913 A</t>
-  </si>
-  <si>
-    <t>30-2605</t>
-  </si>
-  <si>
-    <t>25-1817</t>
+    <t>5-35</t>
+  </si>
+  <si>
+    <t>61-2729 B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +79,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,14 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -456,141 +418,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>